--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/11 ANALISIS DE CUENTAS INCOBRABLES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/2 CUENTAS POR COBRAR/11 ANALISIS DE CUENTAS INCOBRABLES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\2 CUENTAS POR COBRAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BEB207-403F-478D-B350-6C0F1AE3C072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -64,12 +59,6 @@
   </si>
   <si>
     <t>Monto (USD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                               Entidad XXXXXXX</t>
   </si>
   <si>
     <t xml:space="preserve">                                                 Auditor </t>
@@ -225,12 +214,6 @@
   </si>
   <si>
     <t>4 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                    Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                    Análisis de Cuentas Incobrables</t>
   </si>
   <si>
     <t>Esto incluye comparar el porcentaje de cuentas incobrables en diferentes períodos y analizar la antigüedad de las cuentas por cobrar. </t>
@@ -256,12 +239,24 @@
   <si>
     <t>B-11</t>
   </si>
+  <si>
+    <t>Análisis de Cuentas Incobrables</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,11 +322,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -705,20 +695,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -739,49 +722,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,131 +772,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,7 +948,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02AD85C-2D12-48C8-A1C7-DFD27AA512FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1003,7 @@
         <xdr:cNvPr id="5" name="Conector recto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D784A819-57DA-4AB7-B47F-C8DDA9871868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1058,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CCC011-B0C1-444B-BD63-2BDF7368DD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1202,7 +1190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CuadroTexto 3"/>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1818,7 +1812,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1912,14 +1912,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B25:F29" headerRowDxfId="0">
-  <autoFilter ref="B25:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B25:F29" headerRowDxfId="0">
+  <autoFilter ref="B25:F29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PERÍODO" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="TOTAL CUENTAS POR COBRAR"/>
-    <tableColumn id="3" name="CUENTAS INCROBABLES"/>
-    <tableColumn id="4" name="PORCENTAJE INCROBABLES"/>
-    <tableColumn id="5" name="ANTIGÜEDAD PROMEDIO (DÍAS)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERÍODO" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TOTAL CUENTAS POR COBRAR"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CUENTAS INCROBABLES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PORCENTAJE INCROBABLES"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ANTIGÜEDAD PROMEDIO (DÍAS)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2221,7 +2221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2236,11 +2236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2256,315 +2256,308 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1">
-      <c r="K1" s="18" t="s">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1"/>
+    <row r="2" spans="1:11" ht="20.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="J2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="81" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
       <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="D4" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="C6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="J6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="17"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="63"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="24.75" customHeight="1">
-      <c r="B8" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="17"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="63"/>
+      <c r="B8" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="17"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="63"/>
+      <c r="B9" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="29.25" customHeight="1">
+      <c r="B11" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.5">
+      <c r="B12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="55">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="42">
+        <v>8500</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="56">
+        <v>7000</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="38">
+        <v>12000</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="56">
+        <v>-3500</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="27.75" customHeight="1">
+      <c r="B17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="2:8" ht="28.5">
+      <c r="B18" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="28.5">
+      <c r="B19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="56">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" hidden="1" customHeight="1">
+      <c r="B20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="22.5" customHeight="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B22" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+    </row>
+    <row r="23" spans="2:8" ht="13.5" customHeight="1">
+      <c r="B23" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B24" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="68"/>
+    </row>
+    <row r="25" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B25" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="17"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" ht="29.25" customHeight="1">
-      <c r="B11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" ht="28.5">
-      <c r="B12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="39">
-        <v>5000</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="59">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="46">
-        <v>8500</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="60">
-        <v>7000</v>
-      </c>
-      <c r="I14" s="84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="42">
-        <v>12000</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="60">
-        <v>-3500</v>
-      </c>
-      <c r="I15" s="84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B17" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-    </row>
-    <row r="18" spans="2:8" ht="28.5">
-      <c r="B18" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="28.5">
-      <c r="B19" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="60">
-        <v>5000</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" hidden="1" customHeight="1">
-      <c r="B20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="24">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B22" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-    </row>
-    <row r="23" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B23" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-    </row>
-    <row r="24" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B24" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="73"/>
-    </row>
-    <row r="25" spans="2:8" ht="41.25" customHeight="1">
-      <c r="B25" s="78" t="s">
+      <c r="D25" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="73" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="78" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
         <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
       </c>
       <c r="F26">
         <v>60</v>
@@ -2572,16 +2565,16 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
       </c>
       <c r="F27">
         <v>45</v>
@@ -2589,16 +2582,16 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
       </c>
       <c r="F28">
         <v>75</v>
@@ -2606,175 +2599,181 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
         <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
       </c>
       <c r="F29">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="B37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="17.25">
-      <c r="E40" s="23"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="G41" s="21"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" ht="17.25">
-      <c r="E42" s="22"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="17.25">
-      <c r="E43" s="23"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:7" ht="17.25">
-      <c r="E44" s="23"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="E47" s="21"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="37.5" customHeight="1"/>
     <row r="54" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B54" s="74"/>
+      <c r="B54" s="69"/>
     </row>
     <row r="55" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B55" s="75"/>
+      <c r="B55" s="70"/>
     </row>
     <row r="56" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B56" s="76"/>
+      <c r="B56" s="71"/>
     </row>
     <row r="57" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B57" s="77"/>
+      <c r="B57" s="72"/>
     </row>
     <row r="58" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B58" s="77"/>
+      <c r="B58" s="72"/>
     </row>
     <row r="59" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B59" s="77"/>
+      <c r="B59" s="72"/>
     </row>
     <row r="60" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B60" s="77"/>
+      <c r="B60" s="72"/>
     </row>
     <row r="61" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B61" s="75"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B62" s="76"/>
+      <c r="B62" s="71"/>
     </row>
     <row r="63" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B63" s="77"/>
+      <c r="B63" s="72"/>
     </row>
     <row r="64" spans="2:2" ht="24.95" customHeight="1">
-      <c r="B64" s="77"/>
+      <c r="B64" s="72"/>
     </row>
     <row r="65" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B65" s="75"/>
+      <c r="B65" s="70"/>
     </row>
     <row r="66" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B66" s="76"/>
+      <c r="B66" s="71"/>
     </row>
     <row r="67" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B67" s="77"/>
+      <c r="B67" s="72"/>
     </row>
     <row r="68" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B68" s="77"/>
+      <c r="B68" s="72"/>
     </row>
     <row r="69" spans="2:8" ht="24.95" customHeight="1">
-      <c r="B69" s="77"/>
+      <c r="B69" s="72"/>
     </row>
     <row r="72" spans="2:8" ht="17.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="2:8" ht="17.25">
-      <c r="B73" s="27"/>
-      <c r="H73" s="19"/>
+      <c r="B73" s="23"/>
+      <c r="H73" s="15"/>
     </row>
     <row r="75" spans="2:8" ht="17.25">
-      <c r="B75" s="61"/>
+      <c r="B75" s="57"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="C76" s="62"/>
+      <c r="C76" s="58"/>
     </row>
     <row r="77" spans="2:8">
-      <c r="C77" s="62"/>
+      <c r="C77" s="58"/>
     </row>
     <row r="78" spans="2:8">
-      <c r="C78" s="11"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="2:8">
-      <c r="C79" s="12"/>
-      <c r="F79" s="20"/>
+      <c r="C79" s="10"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="2:8" ht="17.25">
-      <c r="C80" s="12"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
+      <c r="C80" s="10"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" spans="2:8" ht="17.25">
-      <c r="F81" s="31"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" spans="2:8" ht="17.25">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" spans="2:8" ht="17.25">
-      <c r="E83" s="23"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D3:G3"/>
+  </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
